--- a/TCB/KQKD.xlsx
+++ b/TCB/KQKD.xlsx
@@ -1706,262 +1706,262 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4217842</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3675</t>
+          <t>3675170</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>3781622</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>3223030</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>3168474</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3108179</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>3174903</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>3086728</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3353513</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3316473</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>3499680</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3236679</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>3085915</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3553</t>
+          <t>3552818</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>3768236</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4007720</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>3981168</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3962</t>
+          <t>3961531</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>4401732</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>4420839</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4164100</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>4607833</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>4980055</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>4916458</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>5677781</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>5576449</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>6002834</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5864332</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>6273</t>
+          <t>6272798</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>6628</t>
+          <t>6628302</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>7004186</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>6631</t>
+          <t>6630891</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>7701</t>
+          <t>7700905</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>7679</t>
+          <t>7678930</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>8151158</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>8721445</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>9120</t>
+          <t>9120277</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>9510</t>
+          <t>9510371</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10688</t>
+          <t>10688076</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>10563</t>
+          <t>10563140</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>11251</t>
+          <t>11251381</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>12250</t>
+          <t>12250039</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>13732</t>
+          <t>13732205</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>13998</t>
+          <t>13997858</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>14533</t>
+          <t>14532716</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>14445</t>
+          <t>14444980</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>14507</t>
+          <t>14507238</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>15349</t>
+          <t>15348981</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>15168</t>
+          <t>15168282</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>15065</t>
+          <t>15064961</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>14950</t>
+          <t>14950024</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>16304</t>
+          <t>16303607</t>
         </is>
       </c>
     </row>
@@ -1974,262 +1974,262 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2804128</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>2723929</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2491596</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2302487</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2150263</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001297</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1881120</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>1802858</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1749410</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1725599</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1638015</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1512212</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1525727</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1491257</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1751073</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1819957</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1968760</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>2046875</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2216</t>
+          <t>2215742</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2200736</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>2108740</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2138874</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>2433383</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2412512</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>2560876</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2617437</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2643365</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2740307</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2650732</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>2724093</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2791774</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>2695513</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2553225</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2184997</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2027437</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2136927</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>2377788</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2265768</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2577</t>
+          <t>2577013</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>2769300</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3685920</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>5431</t>
+          <t>5430628</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>7205325</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>7703</t>
+          <t>7702981</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>7260556</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6847777</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007694</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>5871055</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6239606</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>6463</t>
+          <t>6463144</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>6645</t>
+          <t>6644631</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>7166531</t>
         </is>
       </c>
     </row>
@@ -2242,262 +2242,262 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1413714</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>951241</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1290026</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>920543</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1018211</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1106882</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1293783</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1283870</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1604103</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1590874</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1861665</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1724467</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1560188</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>2061561</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2017163</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>2187763</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2012408</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1914656</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>2185990</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2220103</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>2055360</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>2468959</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2546672</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2503946</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>3116905</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>2959012</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>3359469</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>3124</t>
+          <t>3124025</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3622066</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>3904209</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>4212412</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>3935378</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5148</t>
+          <t>5147680</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>5494</t>
+          <t>5493933</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>6124</t>
+          <t>6123721</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6584518</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>6742</t>
+          <t>6742489</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>7245</t>
+          <t>7244603</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>8111</t>
+          <t>8111063</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>7794</t>
+          <t>7793840</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>7565</t>
+          <t>7565461</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>6819</t>
+          <t>6819411</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>6526880</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6294877</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>7272160</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>7597</t>
+          <t>7597203</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>8499544</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>9478</t>
+          <t>9477926</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>8928676</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>8602</t>
+          <t>8601817</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>8305</t>
+          <t>8305393</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>9137076</t>
         </is>
       </c>
     </row>
@@ -2510,262 +2510,262 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258904</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255600</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233743</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>320029</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>285720</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>310546</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537926</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>418163</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>332440</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376876</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340884</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>346875</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>469807</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>527409</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435597</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>436720</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420109</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>622863</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>643490</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705434</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>746698</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2424063</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>660317</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>869954</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1171873</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1750460</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>888172</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>1177837</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1204502</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1861972</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1309379</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1523122</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1586271</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1652522</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1706894</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1934790</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1921277</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>2695597</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2397262</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2386902</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2708827</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>3347346</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2544212</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2621676</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3008697</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3203500</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2834555</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>3189894</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>2675088</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2262105</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2578542</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3052422</t>
         </is>
       </c>
     </row>
@@ -2778,262 +2778,262 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107755</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216759</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111262</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75755</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134626</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92152</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102861</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202712</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92392</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144857</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122305</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114396</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132760</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176539</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>108088</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132553</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140559</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223291</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121631</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180950</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>192507</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212695</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168622</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>180380</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239737</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327861</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>319303</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>347037</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>466376</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>498339</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447378</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>410497</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>441253</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>583388</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>381822</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477709</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>424238</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>592550</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>604535</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>309766</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585768</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>812774</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>600074</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>602328</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>753037</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>707749</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>663404</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>728422</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>728305</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>799263</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>750410</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>945431</t>
         </is>
       </c>
     </row>
@@ -3046,262 +3046,262 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151149</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38841</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122481</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>244274</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151094</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218394</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>435065</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>215451</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>240048</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>232019</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>218579</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>232479</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>337047</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>350870</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327509</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>304167</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>279550</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399572</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>521859</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>524484</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>554191</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2211368</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>491695</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689574</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>932136</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1422599</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>568869</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>830800</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>738126</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1363633</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>862001</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1112625</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1145018</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1069134</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1325072</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1457081</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1497039</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2103047</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1792727</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>2077136</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>2123059</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2534572</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1944138</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2019348</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2255660</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2495751</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2171151</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2461472</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1946783</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1462842</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1828132</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>2106991</t>
         </is>
       </c>
     </row>
@@ -3314,262 +3314,262 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-46349</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-81</t>
+          <t>-81288</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18060</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-61209</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-118346</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39994</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20575</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21982</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7429</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16876</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1587</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-89</t>
+          <t>-89149</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-114</t>
+          <t>-113726</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74960</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12778</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73831</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78632</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88836</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30347</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84240</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75162</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45317</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152927</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48455</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12948</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9162</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110905</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18069</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-33555</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28303</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30213</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45850</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13411</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65621</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100254</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93418</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27843</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34072</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32801</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27677</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>-304</t>
+          <t>-304011</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>-229</t>
+          <t>-229420</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11153</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123789</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312534</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>544434</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>411351</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61041</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>-424</t>
+          <t>-424270</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454811</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>415158</t>
         </is>
       </c>
     </row>
@@ -3582,262 +3582,262 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-90</t>
+          <t>-89924</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18829</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36508</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49755</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13473</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6010</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40145</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25147</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58104</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24125</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62213</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48292</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66508</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126564</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71870</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78496</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106461</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49997</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174589</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105023</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94686</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22432</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10562</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12145</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116620</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53396</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84597</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69254</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111482</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>132331</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73326</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92559</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127725</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27787</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134965</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61654</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15779</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28535</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>-96</t>
+          <t>-95678</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>-153</t>
+          <t>-152679</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17771</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11259</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29267</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8707</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5587</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32233</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-23405</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103232</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-527</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178426</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31979</t>
         </is>
       </c>
     </row>
@@ -3850,262 +3850,262 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-64695</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-23171</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21655</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92416</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83229</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36389</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30382</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38532</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71908</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-63168</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158744</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-82632</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-36791</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-191550</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71122</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81476</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36462</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110353</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>448598</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100680</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>300067</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>361608</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441802</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>301222</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-39389</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52930</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63970</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>86393</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445702</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>647694</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>557197</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>235223</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203813</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>500764</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611531</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>554701</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>306408</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331768</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-218698</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>593985</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156659</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>-106</t>
+          <t>-106393</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-30632</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74200</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634737</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>247528</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1073030</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>646934</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389242</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249851</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>450449</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>599870</t>
         </is>
       </c>
     </row>
@@ -4118,262 +4118,262 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>141423</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1424007</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239881</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157446</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160821</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183129</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138768</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212996</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>260367</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>373791</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>519638</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>672902</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>771950</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>345355</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>699879</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297084</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>514740</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>802151</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>271433</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>582182</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400123</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>713230</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370198</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>549731</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>875759</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1351481</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>990402</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>965478</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>978914</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1490285</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1172031</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1269814</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1653429</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>1351698</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1291294</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1070117</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>933055</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1052548</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>972806</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1295430</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1135827</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1107240</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2858105</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1657903</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>719642</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>1224044</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1486753</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1967716</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1986320</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>3884139</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1741899</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1730032</t>
         </is>
       </c>
     </row>
@@ -4386,262 +4386,262 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132673</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1158314</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107994</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32399</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39604</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147148</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>417528</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160304</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>168217</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>231426</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192378</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>470765</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509899</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96950</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>99330</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125531</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209491</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224509</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38203</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50955</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96904</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66015</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140894</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>186050</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>415343</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>771105</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>681875</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499253</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559784</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>877440</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>818200</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>862058</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>826901</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>698839</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>620023</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>622383</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>777501</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520578</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>484307</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>541498</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>694501</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612268</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1801006</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>718743</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>590358</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>915472</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1489777</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1706986</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1563606</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4221848</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1347955</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>1309593</t>
         </is>
       </c>
     </row>
@@ -4654,262 +4654,262 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8750</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>265693</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131887</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>125047</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121217</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35981</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-279</t>
+          <t>-278760</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52692</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92150</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142365</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>327260</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202137</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>262051</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248405</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>600549</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171553</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>305249</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>577642</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233230</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>531227</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>303219</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>647215</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>229304</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363681</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>460416</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>580376</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308527</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>466225</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>419130</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612845</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353831</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>407756</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>826528</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652859</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>671271</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447734</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155554</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531970</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>488499</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>753932</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>441326</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>494972</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1057099</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>939160</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>129284</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308572</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3024</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>260730</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422714</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-337709</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393944</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420439</t>
         </is>
       </c>
     </row>
@@ -4922,74 +4922,74 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5090</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8319</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14141</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>196</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>552</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>857</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>390</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -4998,150 +4998,150 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>271</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>894428</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>146</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4016</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8450</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23633</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58051</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6406</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31518</t>
         </is>
       </c>
     </row>
@@ -5154,262 +5154,262 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614786</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>1263207</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>912386</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>770789</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>872972</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>799519</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>789929</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>776290</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>765986</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1098840</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831569</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>798700</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>904587</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1161149</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>981762</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>927053</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1094949</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1281923</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1058054</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>993887</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1128646</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1517605</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1267035</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1151952</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1314671</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>2108849</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1610310</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>1570957</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1794313</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2336823</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>2137714</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1697493</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2489180</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>2306767</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2563083</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2590526</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2627889</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>3392</t>
+          <t>3391848</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3108320</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3297191</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3014021</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>3989840</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>3142086</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2868890</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>3631</t>
+          <t>3630731</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3610089</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3249136</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>3948974</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3430902</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>4740723</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3284915</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>3830693</t>
         </is>
       </c>
     </row>
@@ -5422,262 +5422,262 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>758015</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-88</t>
+          <t>-87972</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>714238</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608356</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>410047</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559529</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>751813</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>768593</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>1310730</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>844251</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1796162</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1346802</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1195267</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1322634</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>2181491</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1909570</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1719012</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1848929</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2595048</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2517977</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2263388</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>4269202</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3392745</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2847528</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3320472</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>2946516</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2784318</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>3116791</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>3564278</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>4290354</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3892750</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4055874</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5008</t>
+          <t>5007584</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>5455123</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>6369119</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>6615437</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>6151</t>
+          <t>6151260</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>6767</t>
+          <t>6767163</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>7003716</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>7739</t>
+          <t>7738517</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>7324</t>
+          <t>7324347</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>5437482</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>6158</t>
+          <t>6157888</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>6456</t>
+          <t>6456280</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>6788</t>
+          <t>6787762</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>7407</t>
+          <t>7407365</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>9013</t>
+          <t>9012631</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>9471</t>
+          <t>9470722</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>8323</t>
+          <t>8323433</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>4813876</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>8326</t>
+          <t>8326283</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>8912</t>
+          <t>8912338</t>
         </is>
       </c>
     </row>
@@ -5690,262 +5690,262 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154586</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1128030</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>316848</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>353175</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312732</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>431209</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78677</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492998</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>1096485</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>590206</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1387958</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>723193</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>675371</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>837412</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1599063</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>904660</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442156</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716483</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1270281</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1108695</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157064</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1073277</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>823960</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219961</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>742614</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59710</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167329</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71980</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>365730</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>312328</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>772020</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439031</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1033718</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>366266</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>850817</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597671</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>588931</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627184</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218386</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>417381</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>609268</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>691259</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>534530</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>807270</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>944972</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1634295</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1210972</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1644213</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1109265</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117844</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1090055</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1013750</t>
         </is>
       </c>
     </row>
@@ -5958,262 +5958,262 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>603429</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1216</t>
+          <t>-1216002</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397390</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97315</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128320</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>673136</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>275595</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>214245</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>254045</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>408204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>623609</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>519896</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>485222</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>582428</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1004910</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>1276856</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1132446</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1324767</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1409282</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2106324</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3195925</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2568785</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2627567</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2577858</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2886806</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2616989</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3044811</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3198548</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>3978026</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>3120730</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3616843</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>3973866</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>5088857</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>5518302</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6017766</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>5562</t>
+          <t>5562329</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>6139979</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>6785</t>
+          <t>6785330</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>7321</t>
+          <t>7321136</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>6715</t>
+          <t>6715079</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>4746223</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>5623</t>
+          <t>5623358</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>5649</t>
+          <t>5649010</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5842790</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>5773</t>
+          <t>5773070</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>7801659</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>7827</t>
+          <t>7826509</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>7214</t>
+          <t>7214168</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4696032</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7236228</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>7899</t>
+          <t>7898588</t>
         </is>
       </c>
     </row>
@@ -6231,237 +6231,237 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32080</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147213</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53879</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48349</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74642</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94164</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132807</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111910</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89686</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106675</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212753</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254518</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228430</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265464</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264490</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>399265</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635598</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>517983</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526912</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518294</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>622057</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524880</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612023</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>615956</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>859200</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615076</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>727848</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>793599</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>1081306</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1042085</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1211109</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1130274</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1456161</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1170786</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1441347</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1343692</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1213783</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1087579</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>1146560</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1177199</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1295383</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1524069</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1558837</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1422429</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1282376</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1221736</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1549782</t>
         </is>
       </c>
     </row>
@@ -6480,52 +6480,52 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>6844</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-515</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>19770</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -6533,22 +6533,22 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19826</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>860</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr"/>
@@ -6570,62 +6570,62 @@
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39647</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1318</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-999</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3114</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3928</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>587</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2296</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1283</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6455</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>981</t>
         </is>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1196</t>
         </is>
       </c>
     </row>
@@ -6643,237 +6643,237 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32080</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>147963</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60723</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52350</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74127</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94608</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132917</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115741</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>109456</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106686</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212754</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254518</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228430</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265464</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>284316</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400125</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>640798</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526912</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518294</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>622057</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524880</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612023</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>615956</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>859200</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615076</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>727848</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>793599</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>1081306</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1042085</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1211109</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1130274</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1456161</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1170786</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1441347</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1347539</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1174136</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1086261</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1145561</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1174085</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1291455</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1524656</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1556541</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1421146</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1275921</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1222717</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1550978</t>
         </is>
       </c>
     </row>
@@ -6886,262 +6886,262 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>603429</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-1216</t>
+          <t>-1216002</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397390</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97315</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96240</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>525173</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214872</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161895</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179918</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313596</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>490692</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>404155</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375766</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475742</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>792156</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1022338</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>904016</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1059303</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1124966</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1706199</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2555127</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2049029</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2100655</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2059564</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>2264749</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>2092109</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>2432788</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>2582592</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3118826</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2505654</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2888995</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3180267</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4007551</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>4476217</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>4807</t>
+          <t>4806657</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>4432</t>
+          <t>4432055</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>4683818</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>5615</t>
+          <t>5614544</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>5879789</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>5368</t>
+          <t>5367540</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>3572</t>
+          <t>3572087</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>4537097</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>4503449</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4668705</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4481615</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6277003</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>6270</t>
+          <t>6269968</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>5793</t>
+          <t>5793022</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>3420111</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>6013511</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>6348</t>
+          <t>6347610</t>
         </is>
       </c>
     </row>
@@ -7179,137 +7179,137 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11222</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9284</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23843</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28363</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89580</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49762</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72116</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81249</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54452</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79488</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95625</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94455</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91588</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109930</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79298</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69574</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27815</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40202</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48394</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55762</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42706</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56006</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76607</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55517</t>
         </is>
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49046</t>
         </is>
       </c>
       <c r="BA29" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65551</t>
         </is>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100246</t>
         </is>
       </c>
     </row>
@@ -7322,262 +7322,262 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>603429</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-1216</t>
+          <t>-1216002</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397390</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97315</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96240</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>525173</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214872</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161895</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179918</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313596</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>490692</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>404155</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375766</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475742</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>792156</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1022338</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>904016</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1059303</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1124966</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1706199</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2555127</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2049029</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2100655</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2059564</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>2253527</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2083</t>
+          <t>2082825</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2408945</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2554229</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3029246</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2455892</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>2816879</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3099018</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>3953099</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4396729</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4711032</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>4337600</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>4592230</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5504614</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>5800491</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>5297966</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>3544272</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>4497</t>
+          <t>4496895</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4455055</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>4612943</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>4438909</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>6220997</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>6193361</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5737505</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3371065</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947960</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
         <is>
-          <t>6247</t>
+          <t>6247364</t>
         </is>
       </c>
     </row>
